--- a/法术书.xlsx
+++ b/法术书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="640"/>
+    <workbookView windowWidth="27315" windowHeight="13065" tabRatio="640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="法术书" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
   <si>
     <t>元素派系</t>
   </si>
@@ -83,25 +83,52 @@
     <t>射弹</t>
   </si>
   <si>
-    <t>发射1D6发造成D20冰属性伤害的射弹</t>
+    <t>发射数发冰晶组成的魔力射弹。造成D20冰属性伤害，发射1D6发</t>
   </si>
   <si>
     <t>火花</t>
   </si>
   <si>
-    <t>发射1D6发造成D20火属性伤害的射弹</t>
+    <t>发射些许燃烧着的魔力射弹。造成D20火属性伤害，发射1D6发</t>
   </si>
   <si>
     <t>静电</t>
   </si>
   <si>
-    <t>发射1D6发造成D20雷属性伤害的射弹</t>
+    <t>发射带有微弱雷电能量的射弹。造成D20雷属性伤害的射弹，发射1D6发</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>霜冻</t>
+  </si>
+  <si>
+    <t>站位</t>
+  </si>
+  <si>
+    <t>传心</t>
+  </si>
+  <si>
+    <t>降低站位气温造成4D20冰伤害，额外目标会增幅效果。每1目标伤害+3</t>
+  </si>
+  <si>
+    <t>火弹</t>
+  </si>
+  <si>
+    <t>发射单发强烈燃烧着的火焰射弹。造成4D20火伤害，对目标站位附上引燃I</t>
+  </si>
+  <si>
+    <t>雷球</t>
+  </si>
+  <si>
+    <t>发射一枚会对站位所有人造成4D20雷伤害的电球。电球持续2回合，耐久I</t>
   </si>
   <si>
     <t>魔力飞弹</t>
   </si>
   <si>
-    <t>发射3发造成D20魔法伤害的射弹</t>
+    <t>发射3发造成D20魔法伤害的魔力射弹</t>
   </si>
   <si>
     <t>魔力射流</t>
@@ -116,15 +143,45 @@
     <t>魔力震荡</t>
   </si>
   <si>
-    <t>站位</t>
-  </si>
-  <si>
     <t>接触</t>
   </si>
   <si>
     <t>对处于接触范围内的敌人造成等同于自身智力的D20伤害</t>
   </si>
   <si>
+    <t>魔法适应</t>
+  </si>
+  <si>
+    <t>手势</t>
+  </si>
+  <si>
+    <t>单友</t>
+  </si>
+  <si>
+    <t>提高魔力亲和力。效果中的角色生成魔力护盾时强度+I，施法时成功率+I</t>
+  </si>
+  <si>
+    <t>蓄魔回路</t>
+  </si>
+  <si>
+    <t>仪式</t>
+  </si>
+  <si>
+    <t>友军</t>
+  </si>
+  <si>
+    <t>2，魔法粉*1</t>
+  </si>
+  <si>
+    <t>可以积蓄残余魔力的回路。使用这个回路释放的术式有50%几率不消耗魔力</t>
+  </si>
+  <si>
+    <t>魔法粉尘</t>
+  </si>
+  <si>
+    <t>将站位洒满带有魔力的粉尘。被魔力属性魔法击中时造成等同于命中魔法威力的伤害；解除隐形</t>
+  </si>
+  <si>
     <t>迟缓术</t>
   </si>
   <si>
@@ -140,12 +197,6 @@
     <t>心跳增速</t>
   </si>
   <si>
-    <t>传心</t>
-  </si>
-  <si>
-    <t>单友</t>
-  </si>
-  <si>
     <t>使目标分解毒素和药剂的速度*2，但是获得毒素的速度也会*2</t>
   </si>
   <si>
@@ -155,19 +206,40 @@
     <t>所有越过这个站位的远程攻击和在其中的近身攻击，命中率-I</t>
   </si>
   <si>
+    <t>静滞</t>
+  </si>
+  <si>
+    <t>单一</t>
+  </si>
+  <si>
+    <t>将接触的单一目标和自身拖入静滞时空。持续时间内无法被物理和魔法干涉。每一次使用将降低双方的总体成功率I。被抵抗成功或者施法失败时也会降低成功率</t>
+  </si>
+  <si>
+    <t>时间爆发</t>
+  </si>
+  <si>
+    <t>即刻</t>
+  </si>
+  <si>
+    <t>将目标的时间压缩，本回合无法行动，但下一回合时行动顺序将提升至第一位，并且额外获得1次要行动。每一次使用降低施放成功率I</t>
+  </si>
+  <si>
+    <t>不稳定断层</t>
+  </si>
+  <si>
+    <t>在站位制造时空畸变断层，降低所有受到影响的目标的时空稳定性。受影响的目标损失2的护甲，并且在格挡、坚韧的判定中成功率-II</t>
+  </si>
+  <si>
     <t>隔空取物</t>
   </si>
   <si>
-    <t>手势</t>
-  </si>
-  <si>
     <t>特殊/单敌</t>
   </si>
   <si>
     <t>特殊</t>
   </si>
   <si>
-    <t>可以抓取并投掷10米/2站位内的物件。在战斗中可以用来投掷石块或物品，每站位障碍等级造成1D20伤害（最高3级）</t>
+    <t>可以抓取并投掷10米/2站位内的物件。在战斗中可以用来投掷石块或物品，每站位障碍等级造成1D20伤害（最高3级）。可以作为扳机动作来反投敌人的抛射物，但是不能反投诸如射弹和弓箭这类高速物体</t>
   </si>
   <si>
     <t>捏捏</t>
@@ -183,6 +255,24 @@
   </si>
   <si>
     <t>让目标的远程攻击命中-II，近战攻击命中-I</t>
+  </si>
+  <si>
+    <t>动能屏障</t>
+  </si>
+  <si>
+    <t>发射会在目标站位生成阻动立场的射弹。生效后所有穿过该站位的物理伤害-II</t>
+  </si>
+  <si>
+    <t>巨力推动</t>
+  </si>
+  <si>
+    <t>发射强大力量组成的冲击波。可以作用于整个站位，也可以集中在单一目标上。对站位造成总计6单位的推力，每1推力可以将1体型的目标后推1格。可以用于扳机动作来弹开敌人的抛射物（会落在随机站位），应用在高速物体时只能作用于单一目标</t>
+  </si>
+  <si>
+    <t>动能拳击</t>
+  </si>
+  <si>
+    <t>发射集中在一点的动能攻击流，如同无形的铁拳般攻击敌人。造成等同于共情*D20的钝击伤害。没有特殊视觉的目标无法格挡</t>
   </si>
 </sst>
 </file>
@@ -190,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,6 +291,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,29 +318,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -249,29 +331,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,33 +376,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,15 +393,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,181 +471,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,28 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,30 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -661,8 +716,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,148 +761,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,13 +1244,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="2" t="s">
@@ -1228,6 +1318,762 @@
       <c r="H5" t="str">
         <f>念动!B4</f>
         <v>扰动术</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="str">
+        <f>元素!B5</f>
+        <v>霜冻</v>
+      </c>
+      <c r="D6" t="str">
+        <f>塑能!B5</f>
+        <v>魔法适应</v>
+      </c>
+      <c r="F6" t="str">
+        <f>时空!B5</f>
+        <v>静滞</v>
+      </c>
+      <c r="H6" t="str">
+        <f>念动!B5</f>
+        <v>动能屏障</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="str">
+        <f>元素!B6</f>
+        <v>火弹</v>
+      </c>
+      <c r="D7" t="str">
+        <f>塑能!B6</f>
+        <v>蓄魔回路</v>
+      </c>
+      <c r="F7" t="str">
+        <f>时空!B6</f>
+        <v>时间爆发</v>
+      </c>
+      <c r="H7" t="str">
+        <f>念动!B6</f>
+        <v>巨力推动</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="str">
+        <f>元素!B7</f>
+        <v>雷球</v>
+      </c>
+      <c r="D8" t="str">
+        <f>塑能!B7</f>
+        <v>魔法粉尘</v>
+      </c>
+      <c r="F8" t="str">
+        <f>时空!B7</f>
+        <v>不稳定断层</v>
+      </c>
+      <c r="H8" t="str">
+        <f>念动!B7</f>
+        <v>动能拳击</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <f>元素!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>塑能!B8</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>时空!B8</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>念动!B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <f>元素!B9</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>塑能!B9</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>时空!B9</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>念动!B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <f>元素!B10</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>塑能!B10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>时空!B10</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>念动!B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <f>元素!B11</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>塑能!B11</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>时空!B11</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>念动!B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <f>元素!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>塑能!B12</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>时空!B12</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>念动!B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <f>元素!B13</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>塑能!B13</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>时空!B13</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>念动!B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <f>元素!B14</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>塑能!B14</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>时空!B14</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>念动!B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <f>元素!B15</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>塑能!B15</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>时空!B15</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>念动!B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <f>元素!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>塑能!B16</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>时空!B16</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>念动!B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <f>元素!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>塑能!B17</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>时空!B17</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>念动!B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <f>元素!B18</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>塑能!B18</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>时空!B18</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>念动!B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <f>元素!B19</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>塑能!B19</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>时空!B19</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>念动!B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <f>元素!B20</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>塑能!B20</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>时空!B20</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>念动!B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <f>元素!B21</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>塑能!B21</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>时空!B21</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>念动!B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <f>元素!B22</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>塑能!B22</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>时空!B22</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>念动!B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <f>元素!B23</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>塑能!B23</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>时空!B23</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>念动!B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <f>元素!B24</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>塑能!B24</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>时空!B24</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>念动!B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <f>元素!B25</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>塑能!B25</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>时空!B25</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>念动!B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <f>元素!B26</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>塑能!B26</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>时空!B26</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>念动!B26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28">
+        <f>元素!B27</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>塑能!B27</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>时空!B27</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>念动!B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <f>元素!B28</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>塑能!B28</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>时空!B28</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>念动!B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <f>元素!B29</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>塑能!B29</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>时空!B29</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>念动!B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <f>元素!B30</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>塑能!B30</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>时空!B30</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>念动!B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <f>元素!B31</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>塑能!B31</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>时空!B31</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>念动!B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <f>元素!B32</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>塑能!B32</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>时空!B32</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>念动!B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <f>元素!B33</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>塑能!B33</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>时空!B33</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>念动!B33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35">
+        <f>元素!B34</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>塑能!B34</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>时空!B34</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>念动!B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <f>元素!B35</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>塑能!B35</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>时空!B35</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>念动!B35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <f>元素!B36</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>塑能!B36</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>时空!B36</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>念动!B36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <f>元素!B37</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>塑能!B37</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>时空!B37</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>念动!B37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <f>元素!B38</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>塑能!B38</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>时空!B38</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>念动!B38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40">
+        <f>元素!B39</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>塑能!B39</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>时空!B39</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>念动!B39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41">
+        <f>元素!B40</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>塑能!B40</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>时空!B40</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>念动!B40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42">
+        <f>元素!B41</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>塑能!B41</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>时空!B41</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>念动!B41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43">
+        <f>元素!B42</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>塑能!B42</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>时空!B42</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>念动!B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44">
+        <f>元素!B43</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>塑能!B43</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>时空!B43</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>念动!B43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45">
+        <f>元素!B44</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>塑能!B44</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>时空!B44</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>念动!B44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46">
+        <f>元素!B45</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>塑能!B45</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>时空!B45</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>念动!B45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47">
+        <f>元素!B46</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>塑能!B46</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>时空!B46</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>念动!B46</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +2085,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="10" max="10" width="36.125" customWidth="1"/>
   </cols>
@@ -1376,6 +2222,102 @@
       </c>
       <c r="J4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1387,13 +2329,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:I$1048576"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="10" max="10" width="39.5" customWidth="1"/>
   </cols>
@@ -1435,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1459,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1467,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1488,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1499,7 +2441,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1508,7 +2450,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1520,10 +2462,106 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1535,14 +2573,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="53.5" customWidth="1"/>
   </cols>
@@ -1584,10 +2623,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1602,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1616,16 +2655,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1637,10 +2676,10 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1648,16 +2687,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1669,10 +2708,106 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1684,13 +2819,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="10" max="10" width="55.125" style="1" customWidth="1"/>
   </cols>
@@ -1727,24 +2862,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:10">
+    <row r="2" ht="54" spans="1:10">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1753,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1764,16 +2899,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1785,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1796,19 +2931,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1817,10 +2952,106 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:10">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:10">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:10">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
